--- a/Inputs/Referenzlastprofile_EFH_Bestand_15_Min.xlsx
+++ b/Inputs/Referenzlastprofile_EFH_Bestand_15_Min.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DianaEspinosaLozano\Desktop\Thesis\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7753ade917cafa6a/Desktop/thesis_del/hemsrechner/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF103AF-3EC6-4D2C-9A37-3AEA16447A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{DBF103AF-3EC6-4D2C-9A37-3AEA16447A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4F239AD-B44F-4C63-BCF8-DC2FE4BB04E7}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="7270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ÜWH" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -52,10 +52,13 @@
     <t>EFH Bestand</t>
   </si>
   <si>
-    <t xml:space="preserve">Heizwärme normiert </t>
+    <t xml:space="preserve">Heizwärme normiert kumuliert </t>
   </si>
   <si>
-    <t xml:space="preserve">Heizwärme normiert kumuliert </t>
+    <t>Heizwärme normiert</t>
+  </si>
+  <si>
+    <t>Heizwärme normiert kumuliert</t>
   </si>
 </sst>
 </file>
@@ -422,21 +425,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="16.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.7265625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="16.7265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.453125" style="1"/>
+    <col min="1" max="1" width="12.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="16.73046875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.73046875" style="1" customWidth="1"/>
+    <col min="7" max="9" width="16.73046875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.46484375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -450,7 +453,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4" t="s">
@@ -460,10 +463,10 @@
         <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -490,7 +493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -517,7 +520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -544,7 +547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -571,7 +574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -598,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -625,7 +628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -652,7 +655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -679,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -706,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -733,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -760,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -787,7 +790,7 @@
         <v>8.1682390761806973E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,7 +817,7 @@
         <v>5.302498716879777E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -841,7 +844,7 @@
         <v>1.3013533603707179E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,7 +871,7 @@
         <v>2.2914323599478217E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,7 +898,7 @@
         <v>3.4952549552568539E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,7 +925,7 @@
         <v>4.9165584050102434E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,7 +952,7 @@
         <v>6.5530678469453763E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,7 +979,7 @@
         <v>8.3731917320082366E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,7 +1006,7 @@
         <v>0.10218903244906746</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1030,7 +1033,7 @@
         <v>0.12064614757805256</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -1057,7 +1060,7 @@
         <v>0.13910326270703766</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -1084,7 +1087,7 @@
         <v>0.15756037783602275</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -1111,7 +1114,7 @@
         <v>0.17520635207013918</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -1138,7 +1141,7 @@
         <v>0.1891861386773955</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -1165,7 +1168,7 @@
         <v>0.19993807991589407</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -1192,7 +1195,7 @@
         <v>0.20853897192499851</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -1219,7 +1222,7 @@
         <v>0.21733736052062824</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -1246,7 +1249,7 @@
         <v>0.22717039888244075</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -1273,7 +1276,7 @@
         <v>0.23626845457123158</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
@@ -1300,7 +1303,7 @@
         <v>0.2454793375049229</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -1327,7 +1330,7 @@
         <v>0.25673972332524575</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -1354,7 +1357,7 @@
         <v>0.27020438846918737</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -1381,7 +1384,7 @@
         <v>0.2856406516240716</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -1408,7 +1411,7 @@
         <v>0.30243189849122271</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -1435,7 +1438,7 @@
         <v>0.32091463693860539</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -1462,7 +1465,7 @@
         <v>0.34086904565605725</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1489,7 +1492,7 @@
         <v>0.36244127267809073</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -1516,7 +1519,7 @@
         <v>0.38608605795490847</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -1543,7 +1546,7 @@
         <v>0.40874817423399823</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -1570,7 +1573,7 @@
         <v>0.4302734147344805</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
@@ -1597,7 +1600,7 @@
         <v>0.45176520545239379</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -1624,7 +1627,7 @@
         <v>0.4724656974324104</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
@@ -1651,7 +1654,7 @@
         <v>0.49144011414783645</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -1678,7 +1681,7 @@
         <v>0.51034421547793507</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -1705,7 +1708,7 @@
         <v>0.52927934492889461</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
@@ -1732,7 +1735,7 @@
         <v>0.54824282261868307</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
@@ -1759,7 +1762,7 @@
         <v>0.56755564876470521</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
@@ -1786,7 +1789,7 @@
         <v>0.5867850536214132</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
@@ -1813,7 +1816,7 @@
         <v>0.60658136744571056</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
@@ -1840,7 +1843,7 @@
         <v>0.62645149342489637</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -1867,7 +1870,7 @@
         <v>0.64634072967318967</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>6</v>
       </c>
@@ -1894,7 +1897,7 @@
         <v>0.66558381962393154</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>6</v>
       </c>
@@ -1921,7 +1924,7 @@
         <v>0.68449668188001811</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
@@ -1948,7 +1951,7 @@
         <v>0.70369445853820511</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
@@ -1975,7 +1978,7 @@
         <v>0.7230363969344652</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
@@ -2002,7 +2005,7 @@
         <v>0.74183387486071195</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
@@ -2029,7 +2032,7 @@
         <v>0.75975258179965932</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
@@ -2056,7 +2059,7 @@
         <v>0.7780361491691371</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
@@ -2083,7 +2086,7 @@
         <v>0.79548441657914792</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
@@ -2110,7 +2113,7 @@
         <v>0.81273495224658587</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
@@ -2137,7 +2140,7 @@
         <v>0.82785152555757746</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
@@ -2164,7 +2167,7 @@
         <v>0.84078173179001281</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -2191,7 +2194,7 @@
         <v>0.85234452521156157</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -2218,7 +2221,7 @@
         <v>0.86248167834920442</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
@@ -2245,7 +2248,7 @@
         <v>0.87155788270473211</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
@@ -2272,7 +2275,7 @@
         <v>0.87919212277852088</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
@@ -2299,7 +2302,7 @@
         <v>0.88610103659734119</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -2326,7 +2329,7 @@
         <v>0.89142337527182169</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
@@ -2353,7 +2356,7 @@
         <v>0.89561806849954939</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
@@ -2380,7 +2383,7 @@
         <v>0.89806689507602511</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>6</v>
       </c>
@@ -2407,7 +2410,7 @@
         <v>0.8993084815123471</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>6</v>
       </c>
@@ -2434,7 +2437,7 @@
         <v>0.89935780380414598</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -2461,7 +2464,7 @@
         <v>0.89935780380414598</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -2488,7 +2491,7 @@
         <v>0.89935780380414598</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>6</v>
       </c>
@@ -2515,7 +2518,7 @@
         <v>0.89935780380414598</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
@@ -2542,7 +2545,7 @@
         <v>0.90041577349785917</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
@@ -2569,7 +2572,7 @@
         <v>0.90377580915231659</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>6</v>
       </c>
@@ -2596,7 +2599,7 @@
         <v>0.90960491158393486</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
@@ -2623,7 +2626,7 @@
         <v>0.91761617083155989</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -2650,7 +2653,7 @@
         <v>0.92599023792856261</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>6</v>
       </c>
@@ -2677,7 +2680,7 @@
         <v>0.9343644850390509</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
@@ -2704,7 +2707,7 @@
         <v>0.94273873214953918</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
@@ -2731,7 +2734,7 @@
         <v>0.95111297926002747</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -2758,7 +2761,7 @@
         <v>0.95948722637051576</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>6</v>
       </c>
@@ -2785,7 +2788,7 @@
         <v>0.96786147348100404</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
@@ -2812,7 +2815,7 @@
         <v>0.97623572059149233</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>6</v>
       </c>
@@ -2839,7 +2842,7 @@
         <v>0.98460996770198062</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
@@ -2866,7 +2869,7 @@
         <v>0.99193259327986671</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>6</v>
       </c>
@@ -2893,7 +2896,7 @@
         <v>0.99694971389639531</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>6</v>
       </c>
@@ -2920,7 +2923,7 @@
         <v>0.99959156039032904</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>6</v>
       </c>
@@ -2947,7 +2950,7 @@
         <v>0.99999975357988014</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>6</v>
       </c>
@@ -2974,7 +2977,7 @@
         <v>0.9999999999999506</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>6</v>
       </c>
@@ -3001,7 +3004,7 @@
         <v>0.9999999999999506</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>6</v>
       </c>
@@ -3028,7 +3031,7 @@
         <v>0.9999999999999506</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>6</v>
       </c>
@@ -3066,20 +3069,20 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="16.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.7265625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="16.7265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.453125" style="1"/>
+    <col min="1" max="1" width="12.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="16.73046875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.73046875" style="1" customWidth="1"/>
+    <col min="7" max="9" width="16.73046875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.46484375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3093,7 +3096,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4" t="s">
@@ -3103,10 +3106,10 @@
         <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3133,7 +3136,7 @@
         <v>1.320795855221124E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3160,7 +3163,7 @@
         <v>2.6183438380418395E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3187,7 +3190,7 @@
         <v>4.3099540730165403E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -3214,7 +3217,7 @@
         <v>6.3085235303686118E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -3241,7 +3244,7 @@
         <v>8.425733511698983E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3268,7 +3271,7 @@
         <v>1.1036794243469749E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3295,7 +3298,7 @@
         <v>1.3578418116039817E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -3322,7 +3325,7 @@
         <v>1.6341114483483622E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -3349,7 +3352,7 @@
         <v>1.9463943844792456E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -3376,7 +3379,7 @@
         <v>2.2586676970683221E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -3403,7 +3406,7 @@
         <v>2.6225868535517245E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -3430,7 +3433,7 @@
         <v>2.9942169392216021E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -3457,7 +3460,7 @@
         <v>3.3873774436995199E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -3484,7 +3487,7 @@
         <v>3.8170058526077931E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -3511,7 +3514,7 @@
         <v>4.2190395387118183E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -3538,7 +3541,7 @@
         <v>4.6496080733419209E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -3565,7 +3568,7 @@
         <v>5.0699018349530577E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -3592,7 +3595,7 @@
         <v>5.4317415342619919E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -3619,7 +3622,7 @@
         <v>5.7954432132968484E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -3646,7 +3649,7 @@
         <v>6.2091146525405844E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -3673,7 +3676,7 @@
         <v>6.7801717936652184E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -3700,7 +3703,7 @@
         <v>7.5465359523240044E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -3727,7 +3730,7 @@
         <v>8.4521706010329392E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -3754,7 +3757,7 @@
         <v>9.5314502432151088E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -3781,7 +3784,7 @@
         <v>0.10739048289800758</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -3808,7 +3811,7 @@
         <v>0.12039299173763769</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -3835,7 +3838,7 @@
         <v>0.13436610703662033</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -3862,7 +3865,7 @@
         <v>0.14944425653822041</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -3889,7 +3892,7 @@
         <v>0.16596209601320452</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -3916,7 +3919,7 @@
         <v>0.1839365747902586</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
@@ -3943,7 +3946,7 @@
         <v>0.20269500661687223</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -3970,7 +3973,7 @@
         <v>0.22245161832129762</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -3997,7 +4000,7 @@
         <v>0.24158031602134811</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -4024,7 +4027,7 @@
         <v>0.25986235511845196</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -4051,7 +4054,7 @@
         <v>0.27797130201488901</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -4078,7 +4081,7 @@
         <v>0.29564503185321794</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -4105,7 +4108,7 @@
         <v>0.3133950492440099</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -4132,7 +4135,7 @@
         <v>0.33067328047566247</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -4159,7 +4162,7 @@
         <v>0.34847481572154049</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -4186,7 +4189,7 @@
         <v>0.36529693700207638</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -4213,7 +4216,7 @@
         <v>0.38218081486209488</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
@@ -4240,7 +4243,7 @@
         <v>0.39839525948367682</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -4267,7 +4270,7 @@
         <v>0.41507123987951211</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
@@ -4294,7 +4297,7 @@
         <v>0.43014316730765445</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -4321,7 +4324,7 @@
         <v>0.44506422094894654</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -4348,7 +4351,7 @@
         <v>0.46056314095842693</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
@@ -4375,7 +4378,7 @@
         <v>0.47584586385008076</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
@@ -4402,7 +4405,7 @@
         <v>0.49043787232784203</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
@@ -4429,7 +4432,7 @@
         <v>0.50455367501018822</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
@@ -4456,7 +4459,7 @@
         <v>0.51840772582529571</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
@@ -4483,7 +4486,7 @@
         <v>0.53065410319074036</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -4510,7 +4513,7 @@
         <v>0.54216656681481179</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>6</v>
       </c>
@@ -4537,7 +4540,7 @@
         <v>0.55300331272093062</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>6</v>
       </c>
@@ -4564,7 +4567,7 @@
         <v>0.5641873127323781</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
@@ -4591,7 +4594,7 @@
         <v>0.57460477229285978</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
@@ -4618,7 +4621,7 @@
         <v>0.58671991378643296</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
@@ -4645,7 +4648,7 @@
         <v>0.59943231703010291</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
@@ -4672,7 +4675,7 @@
         <v>0.61184855498923174</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
@@ -4699,7 +4702,7 @@
         <v>0.6240219429916648</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
@@ -4726,7 +4729,7 @@
         <v>0.63674716043407875</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
@@ -4753,7 +4756,7 @@
         <v>0.64949380792425371</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
@@ -4780,7 +4783,7 @@
         <v>0.66272095997125091</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
@@ -4807,7 +4810,7 @@
         <v>0.67657194922835173</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -4834,7 +4837,7 @@
         <v>0.69155947985311572</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -4861,7 +4864,7 @@
         <v>0.70667934042275438</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
@@ -4888,7 +4891,7 @@
         <v>0.7217268223676937</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
@@ -4915,7 +4918,7 @@
         <v>0.73730031093314852</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
@@ -4942,7 +4945,7 @@
         <v>0.75206942616586037</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -4969,7 +4972,7 @@
         <v>0.76609752918779639</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
@@ -4996,7 +4999,7 @@
         <v>0.77961870027686608</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
@@ -5023,7 +5026,7 @@
         <v>0.79273486382052383</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>6</v>
       </c>
@@ -5050,7 +5053,7 @@
         <v>0.80566665335585819</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>6</v>
       </c>
@@ -5077,7 +5080,7 @@
         <v>0.81852022716100448</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -5104,7 +5107,7 @@
         <v>0.83113608480650902</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -5131,7 +5134,7 @@
         <v>0.84383701999640826</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>6</v>
       </c>
@@ -5158,7 +5161,7 @@
         <v>0.85605265508769335</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
@@ -5185,7 +5188,7 @@
         <v>0.86784828486904397</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
@@ -5212,7 +5215,7 @@
         <v>0.88013480778967856</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>6</v>
       </c>
@@ -5239,7 +5242,7 @@
         <v>0.8928488858465683</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
@@ -5266,7 +5269,7 @@
         <v>0.90567733908317549</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -5293,7 +5296,7 @@
         <v>0.91763021236859632</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>6</v>
       </c>
@@ -5320,7 +5323,7 @@
         <v>0.92874699557169238</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
@@ -5347,7 +5350,7 @@
         <v>0.93905201656965054</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
@@ -5374,7 +5377,7 @@
         <v>0.94836868155246834</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -5401,7 +5404,7 @@
         <v>0.95671240561231252</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>6</v>
       </c>
@@ -5428,7 +5431,7 @@
         <v>0.96430672090877467</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
@@ -5455,7 +5458,7 @@
         <v>0.97133554139455924</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>6</v>
       </c>
@@ -5482,7 +5485,7 @@
         <v>0.9777987044130988</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
@@ -5509,7 +5512,7 @@
         <v>0.98368437149259125</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>6</v>
       </c>
@@ -5536,7 +5539,7 @@
         <v>0.98807879185154313</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>6</v>
       </c>
@@ -5563,7 +5566,7 @@
         <v>0.99110059734691514</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>6</v>
       </c>
@@ -5590,7 +5593,7 @@
         <v>0.99300020217587315</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>6</v>
       </c>
@@ -5617,7 +5620,7 @@
         <v>0.99478273331246592</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>6</v>
       </c>
@@ -5644,7 +5647,7 @@
         <v>0.9965580506539603</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>6</v>
       </c>
@@ -5671,7 +5674,7 @@
         <v>0.99830286094147225</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>6</v>
       </c>
@@ -5711,17 +5714,17 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="16.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.7265625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="16.7265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.453125" style="1"/>
+    <col min="1" max="1" width="12.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="16.73046875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.73046875" style="1" customWidth="1"/>
+    <col min="7" max="9" width="16.73046875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.46484375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5735,7 +5738,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4" t="s">
@@ -5745,10 +5748,10 @@
         <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -5775,7 +5778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -5802,7 +5805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -5829,7 +5832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -5856,7 +5859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -5883,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -5910,7 +5913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -5937,7 +5940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -5964,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -5991,7 +5994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -6018,7 +6021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -6045,7 +6048,7 @@
         <v>9.4232078496836447E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -6072,7 +6075,7 @@
         <v>3.4029875489893294E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -6099,7 +6102,7 @@
         <v>1.070111937052922E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -6126,7 +6129,7 @@
         <v>2.0851056420228303E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -6153,7 +6156,7 @@
         <v>3.3267764217968968E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -6180,7 +6183,7 @@
         <v>4.8045760713102431E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -6207,7 +6210,7 @@
         <v>6.4361256712687331E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -6234,7 +6237,7 @@
         <v>8.2826585364705371E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -6261,7 +6264,7 @@
         <v>0.1024673590895715</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -6288,7 +6291,7 @@
         <v>0.12215049773244907</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -6315,7 +6318,7 @@
         <v>0.14183363637532664</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -6342,7 +6345,7 @@
         <v>0.16151677501820422</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -6369,7 +6372,7 @@
         <v>0.18110763161068166</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -6396,7 +6399,7 @@
         <v>0.1974924963138914</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -6423,7 +6426,7 @@
         <v>0.20988456280834625</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -6450,7 +6453,7 @@
         <v>0.21942385562778396</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -6477,7 +6480,7 @@
         <v>0.22669462801554283</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -6504,7 +6507,7 @@
         <v>0.23160514826598835</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -6531,7 +6534,7 @@
         <v>0.23497561301579029</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -6558,7 +6561,7 @@
         <v>0.23619863052430787</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
@@ -6585,7 +6588,7 @@
         <v>0.23624140402262664</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -6612,7 +6615,7 @@
         <v>0.23624140402262664</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -6639,7 +6642,7 @@
         <v>0.23624140402262664</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -6666,7 +6669,7 @@
         <v>0.23624140402262664</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -6693,7 +6696,7 @@
         <v>0.23632346030933479</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -6720,7 +6723,7 @@
         <v>0.23926789734326065</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -6747,7 +6750,7 @@
         <v>0.24599424977224305</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -6774,7 +6777,7 @@
         <v>0.25562955006935395</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -6801,7 +6804,7 @@
         <v>0.2679391091742524</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -6828,7 +6831,7 @@
         <v>0.28210399223449134</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -6855,7 +6858,7 @@
         <v>0.29829546140198998</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
@@ -6882,7 +6885,7 @@
         <v>0.31601817125660375</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -6909,7 +6912,7 @@
         <v>0.33477523623443589</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
@@ -6936,7 +6939,7 @@
         <v>0.35435074803944</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -6963,7 +6966,7 @@
         <v>0.37599210210063094</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -6990,7 +6993,7 @@
         <v>0.39923584252328714</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
@@ -7017,7 +7020,7 @@
         <v>0.42376498872400198</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
@@ -7044,7 +7047,7 @@
         <v>0.44710808698257426</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
@@ -7071,7 +7074,7 @@
         <v>0.46804230015578768</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
@@ -7098,7 +7101,7 @@
         <v>0.4875265060185488</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
@@ -7125,7 +7128,7 @@
         <v>0.50627931774441148</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -7152,7 +7155,7 @@
         <v>0.52377365059204639</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>6</v>
       </c>
@@ -7179,7 +7182,7 @@
         <v>0.54079391560999979</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>6</v>
       </c>
@@ -7206,7 +7209,7 @@
         <v>0.55898739115025875</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
@@ -7233,7 +7236,7 @@
         <v>0.57796841416630862</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
@@ -7260,7 +7263,7 @@
         <v>0.59801259404226903</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
@@ -7287,7 +7290,7 @@
         <v>0.6174304503860748</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
@@ -7314,7 +7317,7 @@
         <v>0.63663587727978344</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
@@ -7341,7 +7344,7 @@
         <v>0.65619866010556327</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
@@ -7368,7 +7371,7 @@
         <v>0.67549769318839814</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
@@ -7395,7 +7398,7 @@
         <v>0.69472381271212791</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
@@ -7422,7 +7425,7 @@
         <v>0.71388056899705943</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
@@ -7449,7 +7452,7 @@
         <v>0.7326753369645842</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -7476,7 +7479,7 @@
         <v>0.75248221193476794</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -7503,7 +7506,7 @@
         <v>0.77254782806765909</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
@@ -7530,7 +7533,7 @@
         <v>0.79092983914744286</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
@@ -7557,7 +7560,7 @@
         <v>0.80866055513001645</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
@@ -7584,7 +7587,7 @@
         <v>0.82590428226839707</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -7611,7 +7614,7 @@
         <v>0.84370237361950218</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
@@ -7638,7 +7641,7 @@
         <v>0.86108044143080342</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
@@ -7665,7 +7668,7 @@
         <v>0.87830551371398602</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>6</v>
       </c>
@@ -7692,7 +7695,7 @@
         <v>0.89492125214886442</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>6</v>
       </c>
@@ -7719,7 +7722,7 @@
         <v>0.91159952976177527</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -7746,7 +7749,7 @@
         <v>0.92696902781093904</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -7773,7 +7776,7 @@
         <v>0.94076024601530051</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>6</v>
       </c>
@@ -7800,7 +7803,7 @@
         <v>0.95293769164310893</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
@@ -7827,7 +7830,7 @@
         <v>0.96330756573435183</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
@@ -7854,7 +7857,7 @@
         <v>0.97265525928259489</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>6</v>
       </c>
@@ -7881,7 +7884,7 @@
         <v>0.98082987767393648</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
@@ -7908,7 +7911,7 @@
         <v>0.98761075374141194</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -7935,7 +7938,7 @@
         <v>0.99239944214800235</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>6</v>
       </c>
@@ -7962,7 +7965,7 @@
         <v>0.99621763823102216</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
@@ -7989,7 +7992,7 @@
         <v>0.99846164825775396</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
@@ -8016,7 +8019,7 @@
         <v>0.99991435731299294</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -8043,7 +8046,7 @@
         <v>0.99999999999996403</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>6</v>
       </c>
@@ -8070,7 +8073,7 @@
         <v>0.99999999999996403</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
@@ -8097,7 +8100,7 @@
         <v>0.99999999999996403</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>6</v>
       </c>
@@ -8124,7 +8127,7 @@
         <v>0.99999999999996403</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
@@ -8151,7 +8154,7 @@
         <v>0.99999999999996403</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>6</v>
       </c>
@@ -8178,7 +8181,7 @@
         <v>0.99999999999996403</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>6</v>
       </c>
@@ -8205,7 +8208,7 @@
         <v>0.99999999999996403</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>6</v>
       </c>
@@ -8232,7 +8235,7 @@
         <v>0.99999999999996403</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>6</v>
       </c>
@@ -8259,7 +8262,7 @@
         <v>0.99999999999996403</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>6</v>
       </c>
@@ -8286,7 +8289,7 @@
         <v>0.99999999999996403</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>6</v>
       </c>
@@ -8313,7 +8316,7 @@
         <v>0.99999999999996403</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>6</v>
       </c>
@@ -8349,21 +8352,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="16.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.7265625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="16.7265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.453125" style="1"/>
+    <col min="1" max="1" width="12.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="16.73046875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.73046875" style="1" customWidth="1"/>
+    <col min="7" max="9" width="16.73046875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.46484375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -8377,7 +8380,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4" t="s">
@@ -8387,10 +8390,10 @@
         <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -8417,7 +8420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -8444,7 +8447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -8471,7 +8474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -8498,7 +8501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -8525,7 +8528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -8552,7 +8555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -8579,7 +8582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -8606,7 +8609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -8633,7 +8636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -8660,7 +8663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -8687,7 +8690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -8714,7 +8717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -8741,7 +8744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -8768,7 +8771,7 @@
         <v>7.8454749775736139E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -8795,7 +8798,7 @@
         <v>6.6481301233081349E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -8822,7 +8825,7 @@
         <v>1.6410821990514433E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -8849,7 +8852,7 @@
         <v>2.9326903125860785E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -8876,7 +8879,7 @@
         <v>4.4852927779735388E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -8903,7 +8906,7 @@
         <v>6.1095744306682645E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -8930,7 +8933,7 @@
         <v>7.8356197405605565E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -8957,7 +8960,7 @@
         <v>9.6748105279451518E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -8984,7 +8987,7 @@
         <v>0.11670774582673266</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -9011,7 +9014,7 @@
         <v>0.13869902312961396</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -9038,7 +9041,7 @@
         <v>0.16297133099036484</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -9065,7 +9068,7 @@
         <v>0.18793819201763579</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -9092,7 +9095,7 @@
         <v>0.21233450496221606</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -9119,7 +9122,7 @@
         <v>0.23397277316447368</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -9146,7 +9149,7 @@
         <v>0.25373600639113814</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -9173,7 +9176,7 @@
         <v>0.27341327817505789</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -9200,7 +9203,7 @@
         <v>0.2928161181985931</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
@@ -9227,7 +9230,7 @@
         <v>0.31419009645250956</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -9254,7 +9257,7 @@
         <v>0.3365272177617496</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -9281,7 +9284,7 @@
         <v>0.36029271335089469</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -9308,7 +9311,7 @@
         <v>0.38403179059329373</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -9335,7 +9338,7 @@
         <v>0.40790545088948904</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -9362,7 +9365,7 @@
         <v>0.43143739430966888</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -9389,7 +9392,7 @@
         <v>0.45571414364239532</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -9416,7 +9419,7 @@
         <v>0.48132383731736023</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -9443,7 +9446,7 @@
         <v>0.50617928399279599</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -9470,7 +9473,7 @@
         <v>0.53031155970713828</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -9497,7 +9500,7 @@
         <v>0.55282507782123447</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
@@ -9524,7 +9527,7 @@
         <v>0.57442546385996462</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -9551,7 +9554,7 @@
         <v>0.5946864568854574</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
@@ -9578,7 +9581,7 @@
         <v>0.61379855267876227</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -9605,7 +9608,7 @@
         <v>0.63114252497048029</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -9632,7 +9635,7 @@
         <v>0.64774070214781332</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
@@ -9659,7 +9662,7 @@
         <v>0.66274290726881324</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
@@ -9686,7 +9689,7 @@
         <v>0.67616054572929518</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
@@ -9713,7 +9716,7 @@
         <v>0.68914534122453486</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
@@ -9740,7 +9743,7 @@
         <v>0.70120249182812255</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
@@ -9767,7 +9770,7 @@
         <v>0.71214201423560664</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -9794,7 +9797,7 @@
         <v>0.72226247227105189</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>6</v>
       </c>
@@ -9821,7 +9824,7 @@
         <v>0.73149342937792283</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>6</v>
       </c>
@@ -9848,7 +9851,7 @@
         <v>0.73985812188371414</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
@@ -9875,7 +9878,7 @@
         <v>0.74687507618762539</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
@@ -9902,7 +9905,7 @@
         <v>0.75305552707943824</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
@@ -9929,7 +9932,7 @@
         <v>0.75844610806906598</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
@@ -9956,7 +9959,7 @@
         <v>0.76304417798772373</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
@@ -9983,7 +9986,7 @@
         <v>0.76706793443680843</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
@@ -10010,7 +10013,7 @@
         <v>0.7707400189099145</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
@@ -10037,7 +10040,7 @@
         <v>0.7734007027545533</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
@@ -10064,7 +10067,7 @@
         <v>0.77544846493498487</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
@@ -10091,7 +10094,7 @@
         <v>0.77705487530732542</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -10118,7 +10121,7 @@
         <v>0.77817722526249566</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -10145,7 +10148,7 @@
         <v>0.77874162690839288</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
@@ -10172,7 +10175,7 @@
         <v>0.77874162690839288</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
@@ -10199,7 +10202,7 @@
         <v>0.77874162690839288</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
@@ -10226,7 +10229,7 @@
         <v>0.77886621054616945</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -10253,7 +10256,7 @@
         <v>0.78101377843682152</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
@@ -10280,7 +10283,7 @@
         <v>0.78644839581050041</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
@@ -10307,7 +10310,7 @@
         <v>0.79353730037960601</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>6</v>
       </c>
@@ -10334,7 +10337,7 @@
         <v>0.80173753798406922</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>6</v>
       </c>
@@ -10361,7 +10364,7 @@
         <v>0.81131381723056828</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -10388,7 +10391,7 @@
         <v>0.82228064869846029</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -10415,7 +10418,7 @@
         <v>0.83435132153427094</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>6</v>
       </c>
@@ -10442,7 +10445,7 @@
         <v>0.84757299513848605</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
@@ -10469,7 +10472,7 @@
         <v>0.86198534270572891</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
@@ -10496,7 +10499,7 @@
         <v>0.87850246616853456</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>6</v>
       </c>
@@ -10523,7 +10526,7 @@
         <v>0.89605035572807334</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
@@ -10550,7 +10553,7 @@
         <v>0.91428863765601087</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -10577,7 +10580,7 @@
         <v>0.93058037675741545</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>6</v>
       </c>
@@ -10604,7 +10607,7 @@
         <v>0.9435840548152975</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
@@ -10631,7 +10634,7 @@
         <v>0.95492898357626199</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
@@ -10658,7 +10661,7 @@
         <v>0.96516491003152149</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -10685,7 +10688,7 @@
         <v>0.97402239292673931</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>6</v>
       </c>
@@ -10712,7 +10715,7 @@
         <v>0.98148994337233386</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
@@ -10739,7 +10742,7 @@
         <v>0.98785427824558436</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>6</v>
       </c>
@@ -10766,7 +10769,7 @@
         <v>0.99306760447390163</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
@@ -10793,7 +10796,7 @@
         <v>0.99709091682565265</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>6</v>
       </c>
@@ -10820,7 +10823,7 @@
         <v>0.99900854710605347</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>6</v>
       </c>
@@ -10847,7 +10850,7 @@
         <v>0.99992145162660007</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>6</v>
       </c>
@@ -10874,7 +10877,7 @@
         <v>0.99999999999998745</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>6</v>
       </c>
@@ -10901,7 +10904,7 @@
         <v>0.99999999999998745</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>6</v>
       </c>
@@ -10928,7 +10931,7 @@
         <v>0.99999999999998745</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>6</v>
       </c>
@@ -10955,7 +10958,7 @@
         <v>0.99999999999998745</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>6</v>
       </c>
@@ -10992,20 +10995,20 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="16.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.7265625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="16.7265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.453125" style="1"/>
+    <col min="1" max="1" width="12.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="16.73046875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.73046875" style="1" customWidth="1"/>
+    <col min="7" max="9" width="16.73046875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.46484375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -11019,7 +11022,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4" t="s">
@@ -11029,10 +11032,10 @@
         <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -11059,7 +11062,7 @@
         <v>1.08982019626387E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -11086,7 +11089,7 @@
         <v>2.6003278622768085E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -11113,7 +11116,7 @@
         <v>4.4546168773629338E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -11140,7 +11143,7 @@
         <v>6.5818811136224703E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -11167,7 +11170,7 @@
         <v>8.9294940696174573E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -11194,7 +11197,7 @@
         <v>1.1470802590975545E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -11221,7 +11224,7 @@
         <v>1.4264743494565598E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -11248,7 +11251,7 @@
         <v>1.7384043332259482E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -11275,7 +11278,7 @@
         <v>2.0837467079459229E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -11302,7 +11305,7 @@
         <v>2.457713591650347E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -11329,7 +11332,7 @@
         <v>2.8616553154173819E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -11356,7 +11359,7 @@
         <v>3.278943489654753E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -11383,7 +11386,7 @@
         <v>3.6917985239068592E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -11410,7 +11413,7 @@
         <v>4.0995132118319261E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -11437,7 +11440,7 @@
         <v>4.4968242875089479E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -11464,7 +11467,7 @@
         <v>4.8832408927443817E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -11491,7 +11494,7 @@
         <v>5.2612606616059605E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -11518,7 +11521,7 @@
         <v>5.7439214359375289E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -11545,7 +11548,7 @@
         <v>6.5653036628656417E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -11572,7 +11575,7 @@
         <v>7.6640379439374795E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -11599,7 +11602,7 @@
         <v>8.898065289858155E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -11626,7 +11629,7 @@
         <v>0.10249336773739308</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -11653,7 +11656,7 @@
         <v>0.11712013075395071</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -11680,7 +11683,7 @@
         <v>0.13287991824120199</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -11707,7 +11710,7 @@
         <v>0.14979139513541706</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -11734,7 +11737,7 @@
         <v>0.16786415059784024</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -11761,7 +11764,7 @@
         <v>0.18715175343029272</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -11788,7 +11791,7 @@
         <v>0.20765953597477457</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -11815,7 +11818,7 @@
         <v>0.22934039049890162</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -11842,7 +11845,7 @@
         <v>0.25103916144773109</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
@@ -11869,7 +11872,7 @@
         <v>0.27041888536305797</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -11896,7 +11899,7 @@
         <v>0.288112236071979</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -11923,7 +11926,7 @@
         <v>0.30550624178697899</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -11950,7 +11953,7 @@
         <v>0.32261294204724733</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -11977,7 +11980,7 @@
         <v>0.33938933560678791</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -12004,7 +12007,7 @@
         <v>0.35583157388396036</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -12031,7 +12034,7 @@
         <v>0.3720102363897223</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -12058,7 +12061,7 @@
         <v>0.38817857299721642</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -12085,7 +12088,7 @@
         <v>0.40419266755881728</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -12112,7 +12115,7 @@
         <v>0.42000620608490158</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -12139,7 +12142,7 @@
         <v>0.43563446293520874</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
@@ -12166,7 +12169,7 @@
         <v>0.45113779726777337</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -12193,7 +12196,7 @@
         <v>0.46660581223226311</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
@@ -12220,7 +12223,7 @@
         <v>0.48206231697684659</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -12247,7 +12250,7 @@
         <v>0.49753907076008547</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -12274,7 +12277,7 @@
         <v>0.51321785228731576</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
@@ -12301,7 +12304,7 @@
         <v>0.5291712603493488</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
@@ -12328,7 +12331,7 @@
         <v>0.5453784924016033</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
@@ -12355,7 +12358,7 @@
         <v>0.56179801637668714</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
@@ -12382,7 +12385,7 @@
         <v>0.57814327593373649</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
@@ -12409,7 +12412,7 @@
         <v>0.59453274731880179</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -12436,7 +12439,7 @@
         <v>0.61021395491465846</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>6</v>
       </c>
@@ -12463,7 +12466,7 @@
         <v>0.624670922945466</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>6</v>
       </c>
@@ -12490,7 +12493,7 @@
         <v>0.63785753101243547</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
@@ -12517,7 +12520,7 @@
         <v>0.64967951921145362</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
@@ -12544,7 +12547,7 @@
         <v>0.66010880957341966</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
@@ -12571,7 +12574,7 @@
         <v>0.66913791938290246</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
@@ -12598,7 +12601,7 @@
         <v>0.67723624220802092</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
@@ -12625,7 +12628,7 @@
         <v>0.68675765115434972</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
@@ -12652,7 +12655,7 @@
         <v>0.69758542456083639</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
@@ -12679,7 +12682,7 @@
         <v>0.70868738859682123</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
@@ -12706,7 +12709,7 @@
         <v>0.7199872364056672</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
@@ -12733,7 +12736,7 @@
         <v>0.73145042367091651</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -12760,7 +12763,7 @@
         <v>0.7438307426509273</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -12787,7 +12790,7 @@
         <v>0.75762214466775935</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
@@ -12814,7 +12817,7 @@
         <v>0.77271424598867677</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
@@ -12841,7 +12844,7 @@
         <v>0.78898613329610734</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
@@ -12868,7 +12871,7 @@
         <v>0.80634081985051587</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -12895,7 +12898,7 @@
         <v>0.82473723576186309</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
@@ -12922,7 +12925,7 @@
         <v>0.84373132899650805</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
@@ -12949,7 +12952,7 @@
         <v>0.86095648311147155</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>6</v>
       </c>
@@ -12976,7 +12979,7 @@
         <v>0.87651769088706166</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>6</v>
       </c>
@@ -13003,7 +13006,7 @@
         <v>0.89142363926232759</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -13030,7 +13033,7 @@
         <v>0.90576361539596506</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -13057,7 +13060,7 @@
         <v>0.91957672213754849</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>6</v>
       </c>
@@ -13084,7 +13087,7 @@
         <v>0.9323373887493619</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
@@ -13111,7 +13114,7 @@
         <v>0.94367658268326327</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
@@ -13138,7 +13141,7 @@
         <v>0.95371282507953081</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>6</v>
       </c>
@@ -13165,7 +13168,7 @@
         <v>0.96258077790661611</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
@@ -13192,7 +13195,7 @@
         <v>0.9703701871840561</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -13219,7 +13222,7 @@
         <v>0.9771222406131862</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>6</v>
       </c>
@@ -13246,7 +13249,7 @@
         <v>0.98285207137735919</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
@@ -13273,7 +13276,7 @@
         <v>0.98758877509493481</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
@@ -13300,7 +13303,7 @@
         <v>0.99134511095222744</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -13327,7 +13330,7 @@
         <v>0.99413582657502075</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>6</v>
       </c>
@@ -13354,7 +13357,7 @@
         <v>0.99594645809585369</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
@@ -13381,7 +13384,7 @@
         <v>0.99677521549187775</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>6</v>
       </c>
@@ -13408,7 +13411,7 @@
         <v>0.99718835334844946</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
@@ -13435,7 +13438,7 @@
         <v>0.99758805433317754</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>6</v>
       </c>
@@ -13462,7 +13465,7 @@
         <v>0.99796885934161228</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>6</v>
       </c>
@@ -13489,7 +13492,7 @@
         <v>0.99832672772966369</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>6</v>
       </c>
@@ -13516,7 +13519,7 @@
         <v>0.99867470587613072</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>6</v>
       </c>
@@ -13543,7 +13546,7 @@
         <v>0.99901403241679443</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>6</v>
       </c>
@@ -13570,7 +13573,7 @@
         <v>0.99934186523942858</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>6</v>
       </c>
@@ -13597,7 +13600,7 @@
         <v>0.99966729038831548</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>6</v>
       </c>
@@ -13633,21 +13636,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I97"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="16.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.7265625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="16.7265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.453125" style="1"/>
+    <col min="1" max="1" width="12.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="16.73046875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.73046875" style="1" customWidth="1"/>
+    <col min="7" max="9" width="16.73046875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.46484375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -13661,7 +13664,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4" t="s">
@@ -13671,10 +13674,10 @@
         <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -13701,7 +13704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -13728,7 +13731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -13755,7 +13758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -13782,7 +13785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -13809,7 +13812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -13836,7 +13839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -13863,7 +13866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -13890,7 +13893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -13917,7 +13920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -13944,7 +13947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -13971,7 +13974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -13998,7 +14001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -14025,7 +14028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -14052,7 +14055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -14079,7 +14082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -14106,7 +14109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -14133,7 +14136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -14160,7 +14163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -14187,7 +14190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -14214,7 +14217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -14241,7 +14244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -14268,7 +14271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -14295,7 +14298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -14322,7 +14325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -14349,7 +14352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -14376,7 +14379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -14403,7 +14406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -14430,7 +14433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -14457,7 +14460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -14484,7 +14487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
@@ -14511,7 +14514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -14538,7 +14541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -14565,7 +14568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -14592,7 +14595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -14619,7 +14622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -14646,7 +14649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -14673,7 +14676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -14700,7 +14703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -14727,7 +14730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -14754,7 +14757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -14781,7 +14784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
@@ -14808,7 +14811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -14835,7 +14838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
@@ -14862,7 +14865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -14889,7 +14892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -14916,7 +14919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
@@ -14943,7 +14946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
@@ -14970,7 +14973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
@@ -14997,7 +15000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
@@ -15024,7 +15027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
@@ -15051,7 +15054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -15078,7 +15081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>6</v>
       </c>
@@ -15105,7 +15108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>6</v>
       </c>
@@ -15132,7 +15135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
@@ -15159,7 +15162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
@@ -15186,7 +15189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
@@ -15213,7 +15216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
@@ -15240,7 +15243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
@@ -15267,7 +15270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
@@ -15294,7 +15297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
@@ -15321,7 +15324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
@@ -15348,7 +15351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
@@ -15375,7 +15378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -15402,7 +15405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -15429,7 +15432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
@@ -15456,7 +15459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
@@ -15483,7 +15486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
@@ -15510,7 +15513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -15537,7 +15540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
@@ -15564,7 +15567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
@@ -15591,7 +15594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>6</v>
       </c>
@@ -15618,7 +15621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>6</v>
       </c>
@@ -15645,7 +15648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -15672,7 +15675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -15699,7 +15702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>6</v>
       </c>
@@ -15726,7 +15729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
@@ -15753,7 +15756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
@@ -15780,7 +15783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>6</v>
       </c>
@@ -15807,7 +15810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
@@ -15834,7 +15837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -15861,7 +15864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>6</v>
       </c>
@@ -15888,7 +15891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
@@ -15915,7 +15918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
@@ -15942,7 +15945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -15969,7 +15972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>6</v>
       </c>
@@ -15996,7 +15999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
@@ -16023,7 +16026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>6</v>
       </c>
@@ -16050,7 +16053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
@@ -16077,7 +16080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>6</v>
       </c>
@@ -16104,7 +16107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>6</v>
       </c>
@@ -16131,7 +16134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>6</v>
       </c>
@@ -16158,7 +16161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>6</v>
       </c>
@@ -16185,7 +16188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>6</v>
       </c>
@@ -16212,7 +16215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>6</v>
       </c>
@@ -16239,7 +16242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>6</v>
       </c>
@@ -16276,20 +16279,20 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M90" sqref="M90"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="16.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.7265625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="16.7265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.453125" style="1"/>
+    <col min="1" max="1" width="12.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="16.73046875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.73046875" style="1" customWidth="1"/>
+    <col min="7" max="9" width="16.73046875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.46484375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -16303,7 +16306,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4" t="s">
@@ -16313,10 +16316,10 @@
         <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -16343,7 +16346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -16370,7 +16373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -16397,7 +16400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -16424,7 +16427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -16451,7 +16454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -16478,7 +16481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -16505,7 +16508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -16532,7 +16535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -16559,7 +16562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -16586,7 +16589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -16613,7 +16616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -16640,7 +16643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -16667,7 +16670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -16694,7 +16697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -16721,7 +16724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -16748,7 +16751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -16775,7 +16778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -16802,7 +16805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -16829,7 +16832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -16856,7 +16859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -16883,7 +16886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -16910,7 +16913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -16937,7 +16940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -16964,7 +16967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -16991,7 +16994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -17018,7 +17021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -17045,7 +17048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -17072,7 +17075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -17099,7 +17102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -17126,7 +17129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
@@ -17153,7 +17156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -17180,7 +17183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -17207,7 +17210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -17234,7 +17237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -17261,7 +17264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -17288,7 +17291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -17315,7 +17318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -17342,7 +17345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -17369,7 +17372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -17396,7 +17399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -17423,7 +17426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
@@ -17450,7 +17453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -17477,7 +17480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
@@ -17504,7 +17507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -17531,7 +17534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -17558,7 +17561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
@@ -17585,7 +17588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
@@ -17612,7 +17615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
@@ -17639,7 +17642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
@@ -17666,7 +17669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
@@ -17693,7 +17696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -17720,7 +17723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>6</v>
       </c>
@@ -17747,7 +17750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>6</v>
       </c>
@@ -17774,7 +17777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
@@ -17801,7 +17804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
@@ -17828,7 +17831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
@@ -17855,7 +17858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
@@ -17882,7 +17885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
@@ -17909,7 +17912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
@@ -17936,7 +17939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
@@ -17963,7 +17966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
@@ -17990,7 +17993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
@@ -18017,7 +18020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -18044,7 +18047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -18071,7 +18074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
@@ -18098,7 +18101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
@@ -18125,7 +18128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
@@ -18152,7 +18155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -18179,7 +18182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
@@ -18206,7 +18209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
@@ -18233,7 +18236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>6</v>
       </c>
@@ -18260,7 +18263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>6</v>
       </c>
@@ -18287,7 +18290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -18314,7 +18317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -18341,7 +18344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>6</v>
       </c>
@@ -18368,7 +18371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
@@ -18395,7 +18398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
@@ -18422,7 +18425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>6</v>
       </c>
@@ -18449,7 +18452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
@@ -18476,7 +18479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -18503,7 +18506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>6</v>
       </c>
@@ -18530,7 +18533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
@@ -18557,7 +18560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
@@ -18584,7 +18587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -18611,7 +18614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>6</v>
       </c>
@@ -18638,7 +18641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
@@ -18665,7 +18668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>6</v>
       </c>
@@ -18692,7 +18695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
@@ -18719,7 +18722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>6</v>
       </c>
@@ -18746,7 +18749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>6</v>
       </c>
@@ -18773,7 +18776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>6</v>
       </c>
@@ -18800,7 +18803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>6</v>
       </c>
@@ -18827,7 +18830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>6</v>
       </c>
@@ -18854,7 +18857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>6</v>
       </c>
@@ -18881,7 +18884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>6</v>
       </c>
@@ -18918,20 +18921,20 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="16.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.7265625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="16.7265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.453125" style="1"/>
+    <col min="1" max="1" width="12.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="16.73046875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.73046875" style="1" customWidth="1"/>
+    <col min="7" max="9" width="16.73046875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.46484375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -18945,7 +18948,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4" t="s">
@@ -18955,10 +18958,10 @@
         <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -18985,7 +18988,7 @@
         <v>1.4414185966283852E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -19012,7 +19015,7 @@
         <v>2.8664248432384411E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -19039,7 +19042,7 @@
         <v>4.2683220893970806E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -19066,7 +19069,7 @@
         <v>5.6558124831132704E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -19093,7 +19096,7 @@
         <v>7.0288852212106161E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -19120,7 +19123,7 @@
         <v>8.3828786375386918E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -19147,7 +19150,7 @@
         <v>9.7131688185393833E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -19174,7 +19177,7 @@
         <v>1.1011956449428012E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -19201,7 +19204,7 @@
         <v>1.2224914648620603E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -19228,7 +19231,7 @@
         <v>1.3649009780679342E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -19255,7 +19258,7 @@
         <v>1.6281954468764168E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -19282,7 +19285,7 @@
         <v>2.1203157401474063E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -19309,7 +19312,7 @@
         <v>2.8165110711092886E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -19336,7 +19339,7 @@
         <v>3.670348240436308E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -19363,7 +19366,7 @@
         <v>4.6398793644338264E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -19390,7 +19393,7 @@
         <v>5.7413726689549006E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -19417,7 +19420,7 @@
         <v>6.9704572456366271E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -19444,7 +19447,7 @@
         <v>8.2508500292975698E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -19471,7 +19474,7 @@
         <v>9.52118434184379E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -19498,7 +19501,7 @@
         <v>0.10793844332582384</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -19525,7 +19528,7 @@
         <v>0.12104482038463096</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -19552,7 +19555,7 @@
         <v>0.13406438798002271</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -19579,7 +19582,7 @@
         <v>0.14620532625317045</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -19606,7 +19609,7 @@
         <v>0.1562795945500034</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -19633,7 +19636,7 @@
         <v>0.1649392834917433</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -19660,7 +19663,7 @@
         <v>0.17221775508598308</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -19687,7 +19690,7 @@
         <v>0.17958972473524787</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -19714,7 +19717,7 @@
         <v>0.18614850209221612</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -19741,7 +19744,7 @@
         <v>0.19173634067218043</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -19768,7 +19771,7 @@
         <v>0.19754300604418595</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
@@ -19795,7 +19798,7 @@
         <v>0.20417156482867249</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -19822,7 +19825,7 @@
         <v>0.21176421742169582</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -19849,7 +19852,7 @@
         <v>0.22130868436076384</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -19876,7 +19879,7 @@
         <v>0.23267889228402466</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -19903,7 +19906,7 @@
         <v>0.24529453074781188</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -19930,7 +19933,7 @@
         <v>0.25907339280322339</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -19957,7 +19960,7 @@
         <v>0.27357834501749317</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -19984,7 +19987,7 @@
         <v>0.28926734612128641</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -20011,7 +20014,7 @@
         <v>0.30497017948685201</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -20038,7 +20041,7 @@
         <v>0.32141140316019984</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -20065,7 +20068,7 @@
         <v>0.33879585798902723</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
@@ -20092,7 +20095,7 @@
         <v>0.35670991944599084</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -20119,7 +20122,7 @@
         <v>0.37515716806114086</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
@@ -20146,7 +20149,7 @@
         <v>0.39373573362947567</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -20173,7 +20176,7 @@
         <v>0.41085259650922701</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -20200,7 +20203,7 @@
         <v>0.42628457250311774</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
@@ -20227,7 +20230,7 @@
         <v>0.44171018893476499</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
@@ -20254,7 +20257,7 @@
         <v>0.4570786061998795</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
@@ -20281,7 +20284,7 @@
         <v>0.47235266441050855</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
@@ -20308,7 +20311,7 @@
         <v>0.48750836298022038</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
@@ -20335,7 +20338,7 @@
         <v>0.50266471340571883</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -20362,7 +20365,7 @@
         <v>0.51774121800357831</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>6</v>
       </c>
@@ -20389,7 +20392,7 @@
         <v>0.53205483917957441</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>6</v>
       </c>
@@ -20416,7 +20419,7 @@
         <v>0.54637380038262218</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
@@ -20443,7 +20446,7 @@
         <v>0.56070013266164831</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
@@ -20470,7 +20473,7 @@
         <v>0.57513891260945338</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
@@ -20497,7 +20500,7 @@
         <v>0.58917585576013431</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
@@ -20524,7 +20527,7 @@
         <v>0.60390467460486064</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
@@ -20551,7 +20554,7 @@
         <v>0.61831867330115675</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
@@ -20578,7 +20581,7 @@
         <v>0.63263562296334375</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
@@ -20605,7 +20608,7 @@
         <v>0.64692785100566186</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
@@ -20632,7 +20635,7 @@
         <v>0.66119349675681161</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
@@ -20659,7 +20662,7 @@
         <v>0.67542878465486156</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -20686,7 +20689,7 @@
         <v>0.68952679099084846</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -20713,7 +20716,7 @@
         <v>0.70420017735059104</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
@@ -20740,7 +20743,7 @@
         <v>0.71884783628801974</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
@@ -20767,7 +20770,7 @@
         <v>0.7332282234357218</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
@@ -20794,7 +20797,7 @@
         <v>0.74715940614292398</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -20821,7 +20824,7 @@
         <v>0.76136625488369758</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
@@ -20848,7 +20851,7 @@
         <v>0.77591089456614259</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
@@ -20875,7 +20878,7 @@
         <v>0.79047841362807758</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>6</v>
       </c>
@@ -20902,7 +20905,7 @@
         <v>0.80507122340368154</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>6</v>
       </c>
@@ -20929,7 +20932,7 @@
         <v>0.81948677309428686</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -20956,7 +20959,7 @@
         <v>0.83364037467932994</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -20983,7 +20986,7 @@
         <v>0.84752184719954693</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>6</v>
       </c>
@@ -21010,7 +21013,7 @@
         <v>0.86120382297406428</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
@@ -21037,7 +21040,7 @@
         <v>0.87499515955902707</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
@@ -21064,7 +21067,7 @@
         <v>0.8887053462762855</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>6</v>
       </c>
@@ -21091,7 +21094,7 @@
         <v>0.90193469563118223</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
@@ -21118,7 +21121,7 @@
         <v>0.91446760716408593</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -21145,7 +21148,7 @@
         <v>0.92640577533821966</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>6</v>
       </c>
@@ -21172,7 +21175,7 @@
         <v>0.93712400051736477</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
@@ -21199,7 +21202,7 @@
         <v>0.94663458070985318</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
@@ -21226,7 +21229,7 @@
         <v>0.95494853335868268</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -21253,7 +21256,7 @@
         <v>0.96225990980032383</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>6</v>
       </c>
@@ -21280,7 +21283,7 @@
         <v>0.96865055118283905</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
@@ -21307,7 +21310,7 @@
         <v>0.97413130403486614</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>6</v>
       </c>
@@ -21334,7 +21337,7 @@
         <v>0.97882730195592094</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
@@ -21361,7 +21364,7 @@
         <v>0.98239249489301961</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>6</v>
       </c>
@@ -21388,7 +21391,7 @@
         <v>0.98492534309282798</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>6</v>
       </c>
@@ -21415,7 +21418,7 @@
         <v>0.98736163407081257</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>6</v>
       </c>
@@ -21442,7 +21445,7 @@
         <v>0.98982364605455875</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>6</v>
       </c>
@@ -21469,7 +21472,7 @@
         <v>0.9923078559781604</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>6</v>
       </c>
@@ -21496,7 +21499,7 @@
         <v>0.99481767749895422</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>6</v>
       </c>
@@ -21523,7 +21526,7 @@
         <v>0.99737209870671284</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>6</v>
       </c>
@@ -21560,20 +21563,20 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="16.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.7265625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="16.7265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.453125" style="1"/>
+    <col min="1" max="1" width="12.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="16.73046875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.73046875" style="1" customWidth="1"/>
+    <col min="7" max="9" width="16.73046875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.46484375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -21587,7 +21590,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4" t="s">
@@ -21597,10 +21600,10 @@
         <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -21627,7 +21630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -21654,7 +21657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -21681,7 +21684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -21708,7 +21711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -21735,7 +21738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -21762,7 +21765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -21789,7 +21792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -21816,7 +21819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -21843,7 +21846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -21870,7 +21873,7 @@
         <v>8.8367110747574837E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -21897,7 +21900,7 @@
         <v>3.1812221124842312E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -21924,7 +21927,7 @@
         <v>1.0115548163510388E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -21951,7 +21954,7 @@
         <v>1.9758518070030835E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -21978,7 +21981,7 @@
         <v>3.1685590078666108E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -22005,7 +22008,7 @@
         <v>4.6032994194674832E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -22032,7 +22035,7 @@
         <v>6.1903819847579304E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -22059,7 +22062,7 @@
         <v>7.9908910857737464E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -22086,7 +22089,7 @@
         <v>9.8728708884459906E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -22113,7 +22116,7 @@
         <v>0.11756596950066497</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -22140,7 +22143,7 @@
         <v>0.13640323011687006</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -22167,7 +22170,7 @@
         <v>0.15524049073307514</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -22194,7 +22197,7 @@
         <v>0.17399121095936823</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -22221,7 +22224,7 @@
         <v>0.18974541760783406</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -22248,7 +22251,7 @@
         <v>0.20165530096538489</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -22275,7 +22278,7 @@
         <v>0.21085525925565546</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -22302,7 +22305,7 @@
         <v>0.21777036697081259</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -22329,7 +22332,7 @@
         <v>0.22226524160931613</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -22356,7 +22359,7 @@
         <v>0.22523498968569142</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -22383,7 +22386,7 @@
         <v>0.22607127455016632</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -22410,7 +22413,7 @@
         <v>0.22608898797360752</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
@@ -22437,7 +22440,7 @@
         <v>0.22608898797360752</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -22464,7 +22467,7 @@
         <v>0.22608898797360752</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -22491,7 +22494,7 @@
         <v>0.22608898797360752</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -22518,7 +22521,7 @@
         <v>0.22616063326880584</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -22545,7 +22548,7 @@
         <v>0.22907809189618086</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -22572,7 +22575,7 @@
         <v>0.23520760206305494</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -22599,7 +22602,7 @@
         <v>0.24284153424701524</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -22626,7 +22629,7 @@
         <v>0.25259824858450081</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -22653,7 +22656,7 @@
         <v>0.26451568791634289</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -22680,7 +22683,7 @@
         <v>0.27810118493542152</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -22707,7 +22710,7 @@
         <v>0.29321315693497835</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
@@ -22734,7 +22737,7 @@
         <v>0.31019951475780205</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -22761,7 +22764,7 @@
         <v>0.32855065138549527</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
@@ -22788,7 +22791,7 @@
         <v>0.34858232187029692</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -22815,7 +22818,7 @@
         <v>0.37043277199977115</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -22842,7 +22845,7 @@
         <v>0.39361534398283338</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
@@ -22869,7 +22872,7 @@
         <v>0.41571319301411958</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
@@ -22896,7 +22899,7 @@
         <v>0.43592526563495415</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
@@ -22923,7 +22926,7 @@
         <v>0.45609847684786287</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
@@ -22950,7 +22953,7 @@
         <v>0.47561381771805306</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
@@ -22977,7 +22980,7 @@
         <v>0.49488404652880408</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -23004,7 +23007,7 @@
         <v>0.51392556303997139</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>6</v>
       </c>
@@ -23031,7 +23034,7 @@
         <v>0.53286329528609522</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>6</v>
       </c>
@@ -23058,7 +23061,7 @@
         <v>0.55140354789764512</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
@@ -23085,7 +23088,7 @@
         <v>0.56885952413323659</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
@@ -23112,7 +23115,7 @@
         <v>0.58634558430892714</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
@@ -23139,7 +23142,7 @@
         <v>0.60277744526993682</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
@@ -23166,7 +23169,7 @@
         <v>0.61911863584911087</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
@@ -23193,7 +23196,7 @@
         <v>0.63499692899548266</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
@@ -23220,7 +23223,7 @@
         <v>0.65101014565474347</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
@@ -23247,7 +23250,7 @@
         <v>0.66646016052141199</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
@@ -23274,7 +23277,7 @@
         <v>0.68193483846175251</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
@@ -23301,7 +23304,7 @@
         <v>0.69695955450237845</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -23328,7 +23331,7 @@
         <v>0.71166963162207364</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -23355,7 +23358,7 @@
         <v>0.72618508523060388</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
@@ -23382,7 +23385,7 @@
         <v>0.74064475639907146</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
@@ -23409,7 +23412,7 @@
         <v>0.75602937359980915</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
@@ -23436,7 +23439,7 @@
         <v>0.77053495393515214</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -23463,7 +23466,7 @@
         <v>0.78472119235091109</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
@@ -23490,7 +23493,7 @@
         <v>0.79767026168580668</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
@@ -23517,7 +23520,7 @@
         <v>0.81097951824455983</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>6</v>
       </c>
@@ -23544,7 +23547,7 @@
         <v>0.8246764913357133</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>6</v>
       </c>
@@ -23571,7 +23574,7 @@
         <v>0.83885109921415524</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -23598,7 +23601,7 @@
         <v>0.85273039912560922</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -23625,7 +23628,7 @@
         <v>0.86600782792192854</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>6</v>
       </c>
@@ -23652,7 +23655,7 @@
         <v>0.87966120534727554</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
@@ -23679,7 +23682,7 @@
         <v>0.89349957831379556</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
@@ -23706,7 +23709,7 @@
         <v>0.907212675264086</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>6</v>
       </c>
@@ -23733,7 +23736,7 @@
         <v>0.92046655834906332</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
@@ -23760,7 +23763,7 @@
         <v>0.93293117133829262</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -23787,7 +23790,7 @@
         <v>0.94494906139031043</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>6</v>
       </c>
@@ -23814,7 +23817,7 @@
         <v>0.95689590085182807</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
@@ -23841,7 +23844,7 @@
         <v>0.96719371129664156</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
@@ -23868,7 +23871,7 @@
         <v>0.97563448086561222</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -23895,7 +23898,7 @@
         <v>0.98269819756074195</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>6</v>
       </c>
@@ -23922,7 +23925,7 @@
         <v>0.98856575347516629</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
@@ -23949,7 +23952,7 @@
         <v>0.99356857912214314</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>6</v>
       </c>
@@ -23976,7 +23979,7 @@
         <v>0.99707513964257066</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
@@ -24003,7 +24006,7 @@
         <v>0.99916398378147075</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>6</v>
       </c>
@@ -24030,7 +24033,7 @@
         <v>0.99995455742002548</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>6</v>
       </c>
@@ -24057,7 +24060,7 @@
         <v>1.0000000000000424</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>6</v>
       </c>
@@ -24084,7 +24087,7 @@
         <v>1.0000000000000424</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>6</v>
       </c>
@@ -24111,7 +24114,7 @@
         <v>1.0000000000000424</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>6</v>
       </c>
@@ -24138,7 +24141,7 @@
         <v>1.0000000000000424</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>6</v>
       </c>
@@ -24165,7 +24168,7 @@
         <v>1.0000000000000424</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>6</v>
       </c>
@@ -24202,20 +24205,20 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="16.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.7265625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="16.7265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.453125" style="1"/>
+    <col min="1" max="1" width="12.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="16.73046875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.73046875" style="1" customWidth="1"/>
+    <col min="7" max="9" width="16.73046875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.46484375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -24229,7 +24232,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4" t="s">
@@ -24239,10 +24242,10 @@
         <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -24269,7 +24272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -24296,7 +24299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -24323,7 +24326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -24350,7 +24353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -24377,7 +24380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -24404,7 +24407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -24431,7 +24434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -24458,7 +24461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -24485,7 +24488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -24512,7 +24515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -24539,7 +24542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -24566,7 +24569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -24593,7 +24596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -24620,7 +24623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -24647,7 +24650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -24674,7 +24677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -24701,7 +24704,7 @@
         <v>2.5204917001378797E-8</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -24728,7 +24731,7 @@
         <v>6.5142285489479009E-8</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -24755,7 +24758,7 @@
         <v>8.7198988166077064E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -24782,7 +24785,7 @@
         <v>6.3025047114809614E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -24809,7 +24812,7 @@
         <v>1.582261414048125E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -24836,7 +24839,7 @@
         <v>2.8365333645440565E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -24863,7 +24866,7 @@
         <v>4.3703854509710011E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -24890,7 +24893,7 @@
         <v>6.1809412410710883E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -24917,7 +24920,7 @@
         <v>8.2649677683582237E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -24944,7 +24947,7 @@
         <v>0.10551521189724719</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -24971,7 +24974,7 @@
         <v>0.13039662703161267</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -24998,7 +25001,7 @@
         <v>0.15728627226378511</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -25025,7 +25028,7 @@
         <v>0.18685719031454784</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -25052,7 +25055,7 @@
         <v>0.21786226727410071</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
@@ -25079,7 +25082,7 @@
         <v>0.24968318014912616</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -25106,7 +25109,7 @@
         <v>0.27815748532381857</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -25133,7 +25136,7 @@
         <v>0.30526170331630587</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -25160,7 +25163,7 @@
         <v>0.33158920815839232</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -25187,7 +25190,7 @@
         <v>0.3571538303313222</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -25214,7 +25217,7 @@
         <v>0.38211586699053424</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -25241,7 +25244,7 @@
         <v>0.40630531311489704</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -25268,7 +25271,7 @@
         <v>0.43047231852770934</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -25295,7 +25298,7 @@
         <v>0.45497740610828669</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -25322,7 +25325,7 @@
         <v>0.47881929516218469</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -25349,7 +25352,7 @@
         <v>0.50140629820201232</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
@@ -25376,7 +25379,7 @@
         <v>0.52484020882663629</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -25403,7 +25406,7 @@
         <v>0.54711806042291933</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
@@ -25430,7 +25433,7 @@
         <v>0.56823109350596157</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -25457,7 +25460,7 @@
         <v>0.58662288000045293</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -25484,7 +25487,7 @@
         <v>0.60276479132979177</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
@@ -25511,7 +25514,7 @@
         <v>0.61687628963431107</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
@@ -25538,7 +25541,7 @@
         <v>0.62882036183582979</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
@@ -25565,7 +25568,7 @@
         <v>0.6388050131751366</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
@@ -25592,7 +25595,7 @@
         <v>0.6477241249952822</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
@@ -25619,7 +25622,7 @@
         <v>0.65833120986285032</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -25646,7 +25649,7 @@
         <v>0.6707035120556567</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>6</v>
       </c>
@@ -25673,7 +25676,7 @@
         <v>0.68445124353153952</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>6</v>
       </c>
@@ -25700,7 +25703,7 @@
         <v>0.6980664740882917</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
@@ -25727,7 +25730,7 @@
         <v>0.71296529474427961</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
@@ -25754,7 +25757,7 @@
         <v>0.72925742406851601</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
@@ -25781,7 +25784,7 @@
         <v>0.74748537386405667</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
@@ -25808,7 +25811,7 @@
         <v>0.76739794383869331</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
@@ -25835,7 +25838,7 @@
         <v>0.78875464592911193</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
@@ -25862,7 +25865,7 @@
         <v>0.81194152190631719</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
@@ -25889,7 +25892,7 @@
         <v>0.83598535657969597</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
@@ -25916,7 +25919,7 @@
         <v>0.86087744698312507</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
@@ -25943,7 +25946,7 @@
         <v>0.88312343013925843</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -25970,7 +25973,7 @@
         <v>0.90233075071466584</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -25997,7 +26000,7 @@
         <v>0.91874012316082598</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
@@ -26024,7 +26027,7 @@
         <v>0.9329907815664128</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
@@ -26051,7 +26054,7 @@
         <v>0.94543327899377438</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
@@ -26078,7 +26081,7 @@
         <v>0.95644005876535865</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -26105,7 +26108,7 @@
         <v>0.96550960471935121</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
@@ -26132,7 +26135,7 @@
         <v>0.97289679149387132</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
@@ -26159,7 +26162,7 @@
         <v>0.9788387291040862</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>6</v>
       </c>
@@ -26186,7 +26189,7 @@
         <v>0.98294939885042454</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>6</v>
       </c>
@@ -26213,7 +26216,7 @@
         <v>0.98620242569308103</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -26240,7 +26243,7 @@
         <v>0.98767535043440191</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -26267,7 +26270,7 @@
         <v>0.98775094110436179</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>6</v>
       </c>
@@ -26294,7 +26297,7 @@
         <v>0.98775094110436179</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
@@ -26321,7 +26324,7 @@
         <v>0.98775094110436179</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
@@ -26348,7 +26351,7 @@
         <v>0.98775094110436179</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>6</v>
       </c>
@@ -26375,7 +26378,7 @@
         <v>0.98815366658469472</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
@@ -26402,7 +26405,7 @@
         <v>0.9891709658985921</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -26429,7 +26432,7 @@
         <v>0.99018998301185024</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>6</v>
       </c>
@@ -26456,7 +26459,7 @@
         <v>0.99120900012510837</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
@@ -26483,7 +26486,7 @@
         <v>0.99222801723836651</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
@@ -26510,7 +26513,7 @@
         <v>0.99324703435162465</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -26537,7 +26540,7 @@
         <v>0.99426605146488278</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>6</v>
       </c>
@@ -26564,7 +26567,7 @@
         <v>0.99528506857814092</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
@@ -26591,7 +26594,7 @@
         <v>0.99630408569139906</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>6</v>
       </c>
@@ -26618,7 +26621,7 @@
         <v>0.99732310280465719</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
@@ -26645,7 +26648,7 @@
         <v>0.99834211991791533</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>6</v>
       </c>
@@ -26672,7 +26675,7 @@
         <v>0.99936113703117346</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>6</v>
       </c>
@@ -26699,7 +26702,7 @@
         <v>0.99999798768194514</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>6</v>
       </c>
@@ -26726,7 +26729,7 @@
         <v>0.99999999999982836</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>6</v>
       </c>
@@ -26753,7 +26756,7 @@
         <v>0.99999999999982836</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>6</v>
       </c>
@@ -26780,7 +26783,7 @@
         <v>0.99999999999982836</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>6</v>
       </c>
@@ -26807,7 +26810,7 @@
         <v>0.99999999999982836</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>6</v>
       </c>
